--- a/testdata/invalid-testdata/excel2json/properties-invalid-gui_element.xlsx
+++ b/testdata/invalid-testdata/excel2json/properties-invalid-gui_element.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -89,24 +89,6 @@
   </si>
   <si>
     <t>GeonameValue</t>
-  </si>
-  <si>
-    <t>Geonames</t>
-  </si>
-  <si>
-    <t>hasInterval</t>
-  </si>
-  <si>
-    <t>Time interval</t>
-  </si>
-  <si>
-    <t>Zeitintervall</t>
-  </si>
-  <si>
-    <t>hasSequenceBounds</t>
-  </si>
-  <si>
-    <t>IntervalValue</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -117,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +141,6 @@
       <name val="Calibri (Textkörper)"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -212,9 +188,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -524,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -532,21 +505,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -616,7 +589,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
         <v>18</v>
@@ -649,7 +622,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="6"/>
       <c r="L3" s="4" t="s">
         <v>18</v>
@@ -658,63 +631,30 @@
         <v>24</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
